--- a/Code/Results/Cases/Case_4_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_91/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.55228840325492</v>
+        <v>1.776994643007185</v>
       </c>
       <c r="C2">
-        <v>0.356005436349875</v>
+        <v>0.1408982152548504</v>
       </c>
       <c r="D2">
-        <v>0.232762048449942</v>
+        <v>0.4918735383361792</v>
       </c>
       <c r="E2">
-        <v>0.05730099986269099</v>
+        <v>0.1564770308378582</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008302682472925639</v>
+        <v>0.002550075684296477</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04967015342986159</v>
+        <v>0.06522862455345191</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2398233004993813</v>
+        <v>0.405987759196492</v>
       </c>
       <c r="M2">
-        <v>0.4743495523382393</v>
+        <v>0.4387683941067948</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.602940590714667</v>
+        <v>7.179538403729794</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.225712564159551</v>
+        <v>1.689616518605021</v>
       </c>
       <c r="C3">
-        <v>0.3208853357777883</v>
+        <v>0.1291951117967471</v>
       </c>
       <c r="D3">
-        <v>0.2237436590862245</v>
+        <v>0.4925051583194602</v>
       </c>
       <c r="E3">
-        <v>0.0587302743125786</v>
+        <v>0.157553810353475</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008359855978932122</v>
+        <v>0.002553809453376121</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04779387327591778</v>
+        <v>0.06454635528047348</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2203180384502375</v>
+        <v>0.4027974556828937</v>
       </c>
       <c r="M3">
-        <v>0.4173597251144869</v>
+        <v>0.4245932815990798</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.522442566124937</v>
+        <v>7.214462352219215</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.026534812453633</v>
+        <v>1.636559501023214</v>
       </c>
       <c r="C4">
-        <v>0.2993283312859347</v>
+        <v>0.1219643690044876</v>
       </c>
       <c r="D4">
-        <v>0.2185356490777082</v>
+        <v>0.4930935991483096</v>
       </c>
       <c r="E4">
-        <v>0.05966847557476118</v>
+        <v>0.1582578767860392</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008396072827877342</v>
+        <v>0.002556224857281407</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04664301532892168</v>
+        <v>0.06412367458509038</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2085831947591288</v>
+        <v>0.4009887467442113</v>
       </c>
       <c r="M4">
-        <v>0.3826828720003377</v>
+        <v>0.4160515212538769</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.480834781958634</v>
+        <v>7.239769016823288</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.945657168461082</v>
+        <v>1.615088780636427</v>
       </c>
       <c r="C5">
-        <v>0.290541501339959</v>
+        <v>0.119006606811098</v>
       </c>
       <c r="D5">
-        <v>0.2164922284456452</v>
+        <v>0.4933838972863356</v>
       </c>
       <c r="E5">
-        <v>0.06006580758752111</v>
+        <v>0.158555596970535</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008411117978120024</v>
+        <v>0.002557240143025683</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04617411678031047</v>
+        <v>0.06395048940904147</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2038576657477194</v>
+        <v>0.4002895381556613</v>
       </c>
       <c r="M5">
-        <v>0.3686218913504433</v>
+        <v>0.4126115942789568</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.46574316978402</v>
+        <v>7.251052432392555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.932243595429043</v>
+        <v>1.611532706173875</v>
       </c>
       <c r="C6">
-        <v>0.2890822149778955</v>
+        <v>0.1185148017536335</v>
       </c>
       <c r="D6">
-        <v>0.2161575741480419</v>
+        <v>0.49343515300761</v>
       </c>
       <c r="E6">
-        <v>0.06013268400064398</v>
+        <v>0.1586056863603584</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008413633710567427</v>
+        <v>0.002557410604863942</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04609625579008636</v>
+        <v>0.06392167562488282</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2030762908348365</v>
+        <v>0.400175724370385</v>
       </c>
       <c r="M6">
-        <v>0.3662910559842913</v>
+        <v>0.4120428744020685</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.463346924751022</v>
+        <v>7.252984645315223</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.025442960014345</v>
+        <v>1.636269328627009</v>
       </c>
       <c r="C7">
-        <v>0.2992098427818632</v>
+        <v>0.1219245246537071</v>
       </c>
       <c r="D7">
-        <v>0.2185077764045928</v>
+        <v>0.49309730964994</v>
       </c>
       <c r="E7">
-        <v>0.0596737736717099</v>
+        <v>0.1582618481659646</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008396274563021661</v>
+        <v>0.002556238424077702</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0466366915223233</v>
+        <v>0.0641213427429399</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2085192411549954</v>
+        <v>0.4009791635675626</v>
       </c>
       <c r="M7">
-        <v>0.3824929684106237</v>
+        <v>0.4160049632605336</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.480623834800468</v>
+        <v>7.239917259350932</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.439376492446002</v>
+        <v>1.746744171047396</v>
       </c>
       <c r="C8">
-        <v>0.3438921443315337</v>
+        <v>0.1368724011239806</v>
       </c>
       <c r="D8">
-        <v>0.2295817203206099</v>
+        <v>0.492049713645244</v>
       </c>
       <c r="E8">
-        <v>0.05778108587775144</v>
+        <v>0.1568394055259894</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008322169328572449</v>
+        <v>0.002551337647578644</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04902283212437908</v>
+        <v>0.06499416358806442</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2330451489746963</v>
+        <v>0.4048566358249133</v>
       </c>
       <c r="M8">
-        <v>0.4546283555718134</v>
+        <v>0.4338473561587364</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.573498762938613</v>
+        <v>7.190777943422319</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.264131181064272</v>
+        <v>1.968054232176712</v>
       </c>
       <c r="C9">
-        <v>0.4317645117562279</v>
+        <v>0.1658235747168817</v>
       </c>
       <c r="D9">
-        <v>0.254101227899028</v>
+        <v>0.4915852332092925</v>
       </c>
       <c r="E9">
-        <v>0.05456177676910912</v>
+        <v>0.1543898602950398</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008185342034593025</v>
+        <v>0.002542697633098297</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05372215981824269</v>
+        <v>0.0666756535079891</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2832626783074375</v>
+        <v>0.4136481927077398</v>
       </c>
       <c r="M9">
-        <v>0.599036504508959</v>
+        <v>0.4701127769596667</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.822607870165172</v>
+        <v>7.12510489631191</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.881684714261894</v>
+        <v>2.133462596131039</v>
       </c>
       <c r="C10">
-        <v>0.4967808791780897</v>
+        <v>0.1868695333655808</v>
       </c>
       <c r="D10">
-        <v>0.2741118475197339</v>
+        <v>0.4922111265890976</v>
       </c>
       <c r="E10">
-        <v>0.05251326650471455</v>
+        <v>0.1527964017469925</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008089496282589481</v>
+        <v>0.002536935227196767</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0572036756324259</v>
+        <v>0.06789248772002665</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3217652997268061</v>
+        <v>0.4208279247550308</v>
       </c>
       <c r="M10">
-        <v>0.707620720790203</v>
+        <v>0.4975285936534846</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.053908450085004</v>
+        <v>7.095620701113916</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.166046999439459</v>
+        <v>2.209315824143232</v>
       </c>
       <c r="C11">
-        <v>0.5265331687704986</v>
+        <v>0.1963944522834424</v>
       </c>
       <c r="D11">
-        <v>0.2837185638196473</v>
+        <v>0.4927054821025649</v>
       </c>
       <c r="E11">
-        <v>0.05165413717209688</v>
+        <v>0.1521160703977769</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008046790329293519</v>
+        <v>0.002534439563470388</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05879794816320327</v>
+        <v>0.06844199450290489</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.339707282576299</v>
+        <v>0.4242499742841517</v>
       </c>
       <c r="M11">
-        <v>0.7577279414901739</v>
+        <v>0.5101671622023005</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.171439559550834</v>
+        <v>7.086295245658619</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.274303223178606</v>
+        <v>2.238126040984071</v>
       </c>
       <c r="C12">
-        <v>0.5378317734468112</v>
+        <v>0.1999941453717895</v>
       </c>
       <c r="D12">
-        <v>0.287435192574037</v>
+        <v>0.4929227847963773</v>
       </c>
       <c r="E12">
-        <v>0.05133963892387428</v>
+        <v>0.1518648365223534</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008030736593678448</v>
+        <v>0.002533512494030058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0594035501077208</v>
+        <v>0.06864949266011067</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3465698525794352</v>
+        <v>0.4255681645351359</v>
       </c>
       <c r="M12">
-        <v>0.7768199671725213</v>
+        <v>0.5149769084059699</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.217883646963742</v>
+        <v>7.083352607983727</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.250961397604726</v>
+        <v>2.231917428482802</v>
       </c>
       <c r="C13">
-        <v>0.5353968763407693</v>
+        <v>0.1992192089338118</v>
       </c>
       <c r="D13">
-        <v>0.2866311397443582</v>
+        <v>0.4928746467195282</v>
       </c>
       <c r="E13">
-        <v>0.05140688354544842</v>
+        <v>0.151918660100745</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008034188980278873</v>
+        <v>0.002533711356549183</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05927303267116457</v>
+        <v>0.06860483049610266</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.345088718981998</v>
+        <v>0.4252832767976003</v>
       </c>
       <c r="M13">
-        <v>0.7727026749094819</v>
+        <v>0.5139399886459231</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.207792075493217</v>
+        <v>7.083960158700563</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.174941303797596</v>
+        <v>2.211684336361941</v>
       </c>
       <c r="C14">
-        <v>0.5274620282457647</v>
+        <v>0.196690746041952</v>
       </c>
       <c r="D14">
-        <v>0.2840227160936593</v>
+        <v>0.4927227567075505</v>
       </c>
       <c r="E14">
-        <v>0.05162804379891117</v>
+        <v>0.152095273182522</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008045467276101296</v>
+        <v>0.002534362932807039</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05884773133339039</v>
+        <v>0.0684590773316387</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3402704588759633</v>
+        <v>0.424357975495937</v>
       </c>
       <c r="M14">
-        <v>0.7592962069649118</v>
+        <v>0.5105623872668446</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.175220696438089</v>
+        <v>7.086041348739229</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.128454125048961</v>
+        <v>2.199302179530207</v>
       </c>
       <c r="C15">
-        <v>0.5226060912442279</v>
+        <v>0.1951410493887806</v>
       </c>
       <c r="D15">
-        <v>0.2824354374100011</v>
+        <v>0.4926336384278613</v>
       </c>
       <c r="E15">
-        <v>0.05176493356956602</v>
+        <v>0.1522042859741646</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008052390606521234</v>
+        <v>0.002534764381863985</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05858747927911523</v>
+        <v>0.06836972249428896</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.337328250860665</v>
+        <v>0.4237941076268186</v>
       </c>
       <c r="M15">
-        <v>0.7511001355338465</v>
+        <v>0.508496601283575</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.155527348996998</v>
+        <v>7.087392834792468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.863176791949002</v>
+        <v>2.128517543238729</v>
       </c>
       <c r="C16">
-        <v>0.4948406008089989</v>
+        <v>0.1862460594640538</v>
       </c>
       <c r="D16">
-        <v>0.273494692002842</v>
+        <v>0.4921830338790727</v>
       </c>
       <c r="E16">
-        <v>0.0525709078012202</v>
+        <v>0.1528417582424479</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008092304336895594</v>
+        <v>0.002537100846174913</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0570997288208801</v>
+        <v>0.06785649426867835</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3206019187820459</v>
+        <v>0.4206074160996138</v>
       </c>
       <c r="M16">
-        <v>0.7043616822639649</v>
+        <v>0.4967059748961873</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.046489200651678</v>
+        <v>7.096312468610336</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.701372312816034</v>
+        <v>2.085248357556395</v>
       </c>
       <c r="C17">
-        <v>0.4778570499555883</v>
+        <v>0.1807766212113791</v>
       </c>
       <c r="D17">
-        <v>0.2681431977189987</v>
+        <v>0.4919602632477194</v>
       </c>
       <c r="E17">
-        <v>0.05308423617703717</v>
+        <v>0.1532442261999183</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008117012034728726</v>
+        <v>0.002538566318617492</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05618998904310502</v>
+        <v>0.06754060590505517</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3104549460113759</v>
+        <v>0.4186923619709972</v>
       </c>
       <c r="M17">
-        <v>0.6758817989521475</v>
+        <v>0.4895154191705799</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.982865305314448</v>
+        <v>7.102831875182488</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.608624639262928</v>
+        <v>2.060418377615861</v>
       </c>
       <c r="C18">
-        <v>0.4681046866995757</v>
+        <v>0.1776261418362992</v>
       </c>
       <c r="D18">
-        <v>0.265112167948871</v>
+        <v>0.4918518657716646</v>
       </c>
       <c r="E18">
-        <v>0.05338631233607938</v>
+        <v>0.1534799082445284</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008131308151060381</v>
+        <v>0.002539421054813179</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05566769584002529</v>
+        <v>0.06735853571761297</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3046584107219843</v>
+        <v>0.4176055579624034</v>
       </c>
       <c r="M18">
-        <v>0.6595669259435724</v>
+        <v>0.485395331017159</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.947418442893593</v>
+        <v>7.106966298227263</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.577274149302298</v>
+        <v>2.052021253255475</v>
       </c>
       <c r="C19">
-        <v>0.4648052787692336</v>
+        <v>0.1765586574171323</v>
       </c>
       <c r="D19">
-        <v>0.264093803097424</v>
+        <v>0.4918185549844338</v>
       </c>
       <c r="E19">
-        <v>0.05348975112682908</v>
+        <v>0.1535604266777595</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008136163460396128</v>
+        <v>0.002539712489215733</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.055491011306259</v>
+        <v>0.06729682492486688</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3027024268533864</v>
+        <v>0.4172401096800229</v>
       </c>
       <c r="M19">
-        <v>0.6540538867096615</v>
+        <v>0.4840030481287911</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.935609050940059</v>
+        <v>7.108432173626341</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.718563205712883</v>
+        <v>2.089848513511754</v>
       </c>
       <c r="C20">
-        <v>0.4796632621757908</v>
+        <v>0.1813593296949989</v>
       </c>
       <c r="D20">
-        <v>0.2687079641563912</v>
+        <v>0.4919819354571189</v>
       </c>
       <c r="E20">
-        <v>0.0530288827012475</v>
+        <v>0.1532009489143995</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008114373144724121</v>
+        <v>0.002538409092270988</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05628672992862604</v>
+        <v>0.06757427209853972</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3115309479205308</v>
+        <v>0.4188947036311248</v>
       </c>
       <c r="M20">
-        <v>0.6789065947116981</v>
+        <v>0.490279239754571</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.989518209377479</v>
+        <v>7.102098057935677</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.197253979301252</v>
+        <v>2.217624954797543</v>
       </c>
       <c r="C21">
-        <v>0.5297917583188507</v>
+        <v>0.1974336130550398</v>
       </c>
       <c r="D21">
-        <v>0.2847866822028919</v>
+        <v>0.4927665539029533</v>
       </c>
       <c r="E21">
-        <v>0.05156278646332435</v>
+        <v>0.1520432242352401</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000804215145078388</v>
+        <v>0.002534171061864787</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05897259830383561</v>
+        <v>0.0685019045907751</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3416837857241717</v>
+        <v>0.4246291534936404</v>
       </c>
       <c r="M21">
-        <v>0.7632306945172687</v>
+        <v>0.5115538265972717</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.184733703455436</v>
+        <v>7.085414067391355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.513497087646215</v>
+        <v>2.301636405065324</v>
       </c>
       <c r="C22">
-        <v>0.562744114647785</v>
+        <v>0.2078971311347289</v>
       </c>
       <c r="D22">
-        <v>0.2957575621653206</v>
+        <v>0.4934547789396788</v>
       </c>
       <c r="E22">
-        <v>0.05066796166258403</v>
+        <v>0.1513238410630571</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000799563309825563</v>
+        <v>0.00253150604966968</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06073916069017926</v>
+        <v>0.06910473451950594</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3617923846938282</v>
+        <v>0.4285070880636965</v>
       </c>
       <c r="M22">
-        <v>0.8190343846605117</v>
+        <v>0.525596593731251</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.323701347357201</v>
+        <v>7.077942032844703</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.344373272685573</v>
+        <v>2.256752358419362</v>
       </c>
       <c r="C23">
-        <v>0.5451369848676393</v>
+        <v>0.202316439738695</v>
       </c>
       <c r="D23">
-        <v>0.2898576359747551</v>
+        <v>0.4930714227110826</v>
       </c>
       <c r="E23">
-        <v>0.05113961758875618</v>
+        <v>0.151704384367723</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008020402089216526</v>
+        <v>0.002532918858078399</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05979515532895974</v>
+        <v>0.06878330929803411</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3510208032889466</v>
+        <v>0.4264254835227206</v>
       </c>
       <c r="M23">
-        <v>0.7891821058327295</v>
+        <v>0.5180890939020273</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.248430731503845</v>
+        <v>7.081615647151239</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.710790349738147</v>
+        <v>2.087768639467527</v>
       </c>
       <c r="C24">
-        <v>0.4788466376702161</v>
+        <v>0.1810959059529011</v>
       </c>
       <c r="D24">
-        <v>0.2684524916394508</v>
+        <v>0.4919720761582624</v>
       </c>
       <c r="E24">
-        <v>0.05305388636654751</v>
+        <v>0.1532205011867571</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008115565900971794</v>
+        <v>0.002538480136257157</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05624299113362952</v>
+        <v>0.06755905305020704</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3110443724326331</v>
+        <v>0.4188031807723576</v>
       </c>
       <c r="M24">
-        <v>0.6775389031790411</v>
+        <v>0.4899338732857785</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.986506919963972</v>
+        <v>7.102428613350867</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.039258573819382</v>
+        <v>1.907687770157338</v>
       </c>
       <c r="C25">
-        <v>0.4079361847776113</v>
+        <v>0.1580306514730694</v>
       </c>
       <c r="D25">
-        <v>0.2471396359501341</v>
+        <v>0.4915408986418299</v>
       </c>
       <c r="E25">
-        <v>0.05537834484322612</v>
+        <v>0.1550162429698378</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008221497310170531</v>
+        <v>0.002544931738464153</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05244708841357237</v>
+        <v>0.06622401065471095</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2694194427922838</v>
+        <v>0.4111430497333828</v>
       </c>
       <c r="M25">
-        <v>0.5595867437716961</v>
+        <v>0.4601660512374934</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.74731438257254</v>
+        <v>7.139579855269602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_91/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.776994643007185</v>
+        <v>2.552288403255034</v>
       </c>
       <c r="C2">
-        <v>0.1408982152548504</v>
+        <v>0.3560054363502445</v>
       </c>
       <c r="D2">
-        <v>0.4918735383361792</v>
+        <v>0.2327620484498283</v>
       </c>
       <c r="E2">
-        <v>0.1564770308378582</v>
+        <v>0.05730099986272474</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002550075684296477</v>
+        <v>0.0008302682473212309</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06522862455345191</v>
+        <v>0.04967015342988645</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.405987759196492</v>
+        <v>0.2398233004993813</v>
       </c>
       <c r="M2">
-        <v>0.4387683941067948</v>
+        <v>0.4743495523382251</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>7.179538403729794</v>
+        <v>3.60294059071461</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.689616518605021</v>
+        <v>2.22571256415938</v>
       </c>
       <c r="C3">
-        <v>0.1291951117967471</v>
+        <v>0.3208853357777741</v>
       </c>
       <c r="D3">
-        <v>0.4925051583194602</v>
+        <v>0.2237436590859403</v>
       </c>
       <c r="E3">
-        <v>0.157553810353475</v>
+        <v>0.05873027431258571</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002553809453376121</v>
+        <v>0.0008359855978919419</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06454635528047348</v>
+        <v>0.04779387327590001</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4027974556828937</v>
+        <v>0.2203180384502232</v>
       </c>
       <c r="M3">
-        <v>0.4245932815990798</v>
+        <v>0.4173597251144727</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.214462352219215</v>
+        <v>3.522442566124965</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.636559501023214</v>
+        <v>2.026534812453633</v>
       </c>
       <c r="C4">
-        <v>0.1219643690044876</v>
+        <v>0.2993283312854658</v>
       </c>
       <c r="D4">
-        <v>0.4930935991483096</v>
+        <v>0.218535649077694</v>
       </c>
       <c r="E4">
-        <v>0.1582578767860392</v>
+        <v>0.05966847557476029</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002556224857281407</v>
+        <v>0.0008396072827580822</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06412367458509038</v>
+        <v>0.04664301532884707</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4009887467442113</v>
+        <v>0.2085831947591004</v>
       </c>
       <c r="M4">
-        <v>0.4160515212538769</v>
+        <v>0.3826828720003377</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.239769016823288</v>
+        <v>3.480834781958634</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.615088780636427</v>
+        <v>1.945657168461025</v>
       </c>
       <c r="C5">
-        <v>0.119006606811098</v>
+        <v>0.2905415013404564</v>
       </c>
       <c r="D5">
-        <v>0.4933838972863356</v>
+        <v>0.2164922284456594</v>
       </c>
       <c r="E5">
-        <v>0.158555596970535</v>
+        <v>0.06006580758750868</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002557240143025683</v>
+        <v>0.0008411117977542935</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06395048940904147</v>
+        <v>0.0461741167804206</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4002895381556613</v>
+        <v>0.2038576657477336</v>
       </c>
       <c r="M5">
-        <v>0.4126115942789568</v>
+        <v>0.3686218913504362</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.251052432392555</v>
+        <v>3.465743169784162</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.611532706173875</v>
+        <v>1.932243595428986</v>
       </c>
       <c r="C6">
-        <v>0.1185148017536335</v>
+        <v>0.289082214977654</v>
       </c>
       <c r="D6">
-        <v>0.49343515300761</v>
+        <v>0.2161575741480846</v>
       </c>
       <c r="E6">
-        <v>0.1586056863603584</v>
+        <v>0.06013268400064042</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002557410604863942</v>
+        <v>0.0008413633710561697</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06392167562488282</v>
+        <v>0.04609625579011123</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.400175724370385</v>
+        <v>0.2030762908348009</v>
       </c>
       <c r="M6">
-        <v>0.4120428744020685</v>
+        <v>0.3662910559843056</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.252984645315223</v>
+        <v>3.463346924751022</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.636269328627009</v>
+        <v>2.025442960014402</v>
       </c>
       <c r="C7">
-        <v>0.1219245246537071</v>
+        <v>0.2992098427820196</v>
       </c>
       <c r="D7">
-        <v>0.49309730964994</v>
+        <v>0.2185077764045786</v>
       </c>
       <c r="E7">
-        <v>0.1582618481659646</v>
+        <v>0.0596737736716948</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002556238424077702</v>
+        <v>0.0008396274563310874</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0641213427429399</v>
+        <v>0.04663669152249739</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4009791635675626</v>
+        <v>0.2085192411551162</v>
       </c>
       <c r="M7">
-        <v>0.4160049632605336</v>
+        <v>0.3824929684106309</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.239917259350932</v>
+        <v>3.48062383480044</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.746744171047396</v>
+        <v>2.439376492446058</v>
       </c>
       <c r="C8">
-        <v>0.1368724011239806</v>
+        <v>0.3438921443315337</v>
       </c>
       <c r="D8">
-        <v>0.492049713645244</v>
+        <v>0.2295817203207235</v>
       </c>
       <c r="E8">
-        <v>0.1568394055259894</v>
+        <v>0.0577810858777541</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002551337647578644</v>
+        <v>0.0008322169328578839</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06499416358806442</v>
+        <v>0.04902283212448921</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4048566358249133</v>
+        <v>0.2330451489747389</v>
       </c>
       <c r="M8">
-        <v>0.4338473561587364</v>
+        <v>0.4546283555718063</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.190777943422319</v>
+        <v>3.573498762938584</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.968054232176712</v>
+        <v>3.264131181064329</v>
       </c>
       <c r="C9">
-        <v>0.1658235747168817</v>
+        <v>0.4317645117560289</v>
       </c>
       <c r="D9">
-        <v>0.4915852332092925</v>
+        <v>0.2541012278992554</v>
       </c>
       <c r="E9">
-        <v>0.1543898602950398</v>
+        <v>0.05456177676911267</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002542697633098297</v>
+        <v>0.0008185342034237356</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0666756535079891</v>
+        <v>0.05372215981828532</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4136481927077398</v>
+        <v>0.283262678307409</v>
       </c>
       <c r="M9">
-        <v>0.4701127769596667</v>
+        <v>0.5990365045089732</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.12510489631191</v>
+        <v>3.822607870165143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.133462596131039</v>
+        <v>3.881684714261837</v>
       </c>
       <c r="C10">
-        <v>0.1868695333655808</v>
+        <v>0.4967808791782033</v>
       </c>
       <c r="D10">
-        <v>0.4922111265890976</v>
+        <v>0.2741118475197482</v>
       </c>
       <c r="E10">
-        <v>0.1527964017469925</v>
+        <v>0.05251326650472876</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002536935227196767</v>
+        <v>0.0008089496282611139</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06789248772002665</v>
+        <v>0.05720367563241879</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4208279247550308</v>
+        <v>0.3217652997268061</v>
       </c>
       <c r="M10">
-        <v>0.4975285936534846</v>
+        <v>0.707620720790203</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.095620701113916</v>
+        <v>4.053908450085004</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.209315824143232</v>
+        <v>4.166046999439573</v>
       </c>
       <c r="C11">
-        <v>0.1963944522834424</v>
+        <v>0.5265331687704133</v>
       </c>
       <c r="D11">
-        <v>0.4927054821025649</v>
+        <v>0.283718563819761</v>
       </c>
       <c r="E11">
-        <v>0.1521160703977769</v>
+        <v>0.05165413717208267</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002534439563470388</v>
+        <v>0.0008046790329210606</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06844199450290489</v>
+        <v>0.05879794816321748</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4242499742841517</v>
+        <v>0.3397072825763132</v>
       </c>
       <c r="M11">
-        <v>0.5101671622023005</v>
+        <v>0.7577279414901597</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.086295245658619</v>
+        <v>4.171439559550834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.238126040984071</v>
+        <v>4.274303223178606</v>
       </c>
       <c r="C12">
-        <v>0.1999941453717895</v>
+        <v>0.5378317734464417</v>
       </c>
       <c r="D12">
-        <v>0.4929227847963773</v>
+        <v>0.2874351925741223</v>
       </c>
       <c r="E12">
-        <v>0.1518648365223534</v>
+        <v>0.05133963892387161</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002533512494030058</v>
+        <v>0.0008030736594061912</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06864949266011067</v>
+        <v>0.05940355010775988</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4255681645351359</v>
+        <v>0.3465698525795631</v>
       </c>
       <c r="M12">
-        <v>0.5149769084059699</v>
+        <v>0.7768199671725142</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.083352607983727</v>
+        <v>4.217883646963742</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.231917428482802</v>
+        <v>4.250961397604897</v>
       </c>
       <c r="C13">
-        <v>0.1992192089338118</v>
+        <v>0.5353968763407693</v>
       </c>
       <c r="D13">
-        <v>0.4928746467195282</v>
+        <v>0.2866311397443582</v>
       </c>
       <c r="E13">
-        <v>0.151918660100745</v>
+        <v>0.0514068835454129</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002533711356549183</v>
+        <v>0.0008034188980288981</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06860483049610266</v>
+        <v>0.05927303267112904</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4252832767976003</v>
+        <v>0.3450887189821543</v>
       </c>
       <c r="M13">
-        <v>0.5139399886459231</v>
+        <v>0.772702674909489</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.083960158700563</v>
+        <v>4.207792075493217</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.211684336361941</v>
+        <v>4.174941303797709</v>
       </c>
       <c r="C14">
-        <v>0.196690746041952</v>
+        <v>0.5274620282455942</v>
       </c>
       <c r="D14">
-        <v>0.4927227567075505</v>
+        <v>0.2840227160936877</v>
       </c>
       <c r="E14">
-        <v>0.152095273182522</v>
+        <v>0.05162804379887209</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002534362932807039</v>
+        <v>0.0008045467275807456</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0684590773316387</v>
+        <v>0.05884773133339394</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.424357975495937</v>
+        <v>0.3402704588761907</v>
       </c>
       <c r="M14">
-        <v>0.5105623872668446</v>
+        <v>0.7592962069649118</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.086041348739229</v>
+        <v>4.175220696438089</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.199302179530207</v>
+        <v>4.128454125048847</v>
       </c>
       <c r="C15">
-        <v>0.1951410493887806</v>
+        <v>0.5226060912443984</v>
       </c>
       <c r="D15">
-        <v>0.4926336384278613</v>
+        <v>0.2824354374100153</v>
       </c>
       <c r="E15">
-        <v>0.1522042859741646</v>
+        <v>0.05176493356956513</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002534764381863985</v>
+        <v>0.0008052390606521555</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06836972249428896</v>
+        <v>0.05858747927911878</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4237941076268186</v>
+        <v>0.3373282508606081</v>
       </c>
       <c r="M15">
-        <v>0.508496601283575</v>
+        <v>0.7511001355338607</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.087392834792468</v>
+        <v>4.155527348996998</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.128517543238729</v>
+        <v>3.863176791948831</v>
       </c>
       <c r="C16">
-        <v>0.1862460594640538</v>
+        <v>0.4948406008092832</v>
       </c>
       <c r="D16">
-        <v>0.4921830338790727</v>
+        <v>0.2734946920029273</v>
       </c>
       <c r="E16">
-        <v>0.1528417582424479</v>
+        <v>0.05257090780120954</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002537100846174913</v>
+        <v>0.0008092304338248444</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06785649426867835</v>
+        <v>0.0570997288208801</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4206074160996138</v>
+        <v>0.3206019187821028</v>
       </c>
       <c r="M16">
-        <v>0.4967059748961873</v>
+        <v>0.7043616822639578</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.096312468610336</v>
+        <v>4.046489200651678</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.085248357556395</v>
+        <v>3.70137231281592</v>
       </c>
       <c r="C17">
-        <v>0.1807766212113791</v>
+        <v>0.4778570499556167</v>
       </c>
       <c r="D17">
-        <v>0.4919602632477194</v>
+        <v>0.2681431977189987</v>
       </c>
       <c r="E17">
-        <v>0.1532442261999183</v>
+        <v>0.05308423617702118</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002538566318617492</v>
+        <v>0.000811701203437096</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06754060590505517</v>
+        <v>0.0561899890432116</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4186923619709972</v>
+        <v>0.3104549460114043</v>
       </c>
       <c r="M17">
-        <v>0.4895154191705799</v>
+        <v>0.6758817989521333</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.102831875182488</v>
+        <v>3.982865305314476</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.060418377615861</v>
+        <v>3.608624639262928</v>
       </c>
       <c r="C18">
-        <v>0.1776261418362992</v>
+        <v>0.4681046866994905</v>
       </c>
       <c r="D18">
-        <v>0.4918518657716646</v>
+        <v>0.2651121679488995</v>
       </c>
       <c r="E18">
-        <v>0.1534799082445284</v>
+        <v>0.05338631233609625</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002539421054813179</v>
+        <v>0.0008131308150768346</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06735853571761297</v>
+        <v>0.05566769584008924</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4176055579624034</v>
+        <v>0.3046584107220411</v>
       </c>
       <c r="M18">
-        <v>0.485395331017159</v>
+        <v>0.6595669259435724</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.106966298227263</v>
+        <v>3.947418442893508</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.052021253255475</v>
+        <v>3.577274149302355</v>
       </c>
       <c r="C19">
-        <v>0.1765586574171323</v>
+        <v>0.4648052787692336</v>
       </c>
       <c r="D19">
-        <v>0.4918185549844338</v>
+        <v>0.2640938030973814</v>
       </c>
       <c r="E19">
-        <v>0.1535604266777595</v>
+        <v>0.05348975112681842</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002539712489215733</v>
+        <v>0.0008136163460482712</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06729682492486688</v>
+        <v>0.05549101130621636</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4172401096800229</v>
+        <v>0.3027024268533864</v>
       </c>
       <c r="M19">
-        <v>0.4840030481287911</v>
+        <v>0.6540538867096615</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.108432173626341</v>
+        <v>3.935609050940087</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.089848513511754</v>
+        <v>3.718563205712826</v>
       </c>
       <c r="C20">
-        <v>0.1813593296949989</v>
+        <v>0.4796632621757908</v>
       </c>
       <c r="D20">
-        <v>0.4919819354571189</v>
+        <v>0.2687079641564907</v>
       </c>
       <c r="E20">
-        <v>0.1532009489143995</v>
+        <v>0.05302888270125194</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002538409092270988</v>
+        <v>0.0008114373144435123</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06757427209853972</v>
+        <v>0.05628672992875039</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4188947036311248</v>
+        <v>0.3115309479205166</v>
       </c>
       <c r="M20">
-        <v>0.490279239754571</v>
+        <v>0.6789065947116839</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.102098057935677</v>
+        <v>3.989518209377621</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.217624954797543</v>
+        <v>4.197253979301081</v>
       </c>
       <c r="C21">
-        <v>0.1974336130550398</v>
+        <v>0.529791758318936</v>
       </c>
       <c r="D21">
-        <v>0.4927665539029533</v>
+        <v>0.2847866822028067</v>
       </c>
       <c r="E21">
-        <v>0.1520432242352401</v>
+        <v>0.05156278646332257</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002534171061864787</v>
+        <v>0.0008042151450772383</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0685019045907751</v>
+        <v>0.05897259830381785</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4246291534936404</v>
+        <v>0.3416837857241291</v>
       </c>
       <c r="M21">
-        <v>0.5115538265972717</v>
+        <v>0.7632306945172687</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.085414067391355</v>
+        <v>4.184733703455379</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.301636405065324</v>
+        <v>4.513497087646215</v>
       </c>
       <c r="C22">
-        <v>0.2078971311347289</v>
+        <v>0.5627441146479271</v>
       </c>
       <c r="D22">
-        <v>0.4934547789396788</v>
+        <v>0.2957575621653206</v>
       </c>
       <c r="E22">
-        <v>0.1513238410630571</v>
+        <v>0.05066796166255205</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00253150604966968</v>
+        <v>0.0007995633097980111</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06910473451950594</v>
+        <v>0.06073916069018992</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4285070880636965</v>
+        <v>0.3617923846937288</v>
       </c>
       <c r="M22">
-        <v>0.525596593731251</v>
+        <v>0.8190343846605046</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.077942032844703</v>
+        <v>4.323701347357201</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.256752358419362</v>
+        <v>4.344373272685459</v>
       </c>
       <c r="C23">
-        <v>0.202316439738695</v>
+        <v>0.5451369848678951</v>
       </c>
       <c r="D23">
-        <v>0.4930714227110826</v>
+        <v>0.2898576359747977</v>
       </c>
       <c r="E23">
-        <v>0.151704384367723</v>
+        <v>0.05113961758875707</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002532918858078399</v>
+        <v>0.0008020402088927099</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06878330929803411</v>
+        <v>0.05979515532890289</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4264254835227206</v>
+        <v>0.3510208032889466</v>
       </c>
       <c r="M23">
-        <v>0.5180890939020273</v>
+        <v>0.7891821058327437</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.081615647151239</v>
+        <v>4.248430731503845</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.087768639467527</v>
+        <v>3.710790349738147</v>
       </c>
       <c r="C24">
-        <v>0.1810959059529011</v>
+        <v>0.4788466376701876</v>
       </c>
       <c r="D24">
-        <v>0.4919720761582624</v>
+        <v>0.2684524916395645</v>
       </c>
       <c r="E24">
-        <v>0.1532205011867571</v>
+        <v>0.05305388636657593</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002538480136257157</v>
+        <v>0.0008115565901337035</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06755905305020704</v>
+        <v>0.05624299113355136</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4188031807723576</v>
+        <v>0.3110443724326899</v>
       </c>
       <c r="M24">
-        <v>0.4899338732857785</v>
+        <v>0.6775389031790482</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.102428613350867</v>
+        <v>3.986506919963972</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.907687770157338</v>
+        <v>3.039258573819325</v>
       </c>
       <c r="C25">
-        <v>0.1580306514730694</v>
+        <v>0.4079361847776397</v>
       </c>
       <c r="D25">
-        <v>0.4915408986418299</v>
+        <v>0.2471396359501341</v>
       </c>
       <c r="E25">
-        <v>0.1550162429698378</v>
+        <v>0.05537834484322168</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002544931738464153</v>
+        <v>0.0008221497310501842</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06622401065471095</v>
+        <v>0.05244708841357948</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4111430497333828</v>
+        <v>0.2694194427922838</v>
       </c>
       <c r="M25">
-        <v>0.4601660512374934</v>
+        <v>0.5595867437717104</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.139579855269602</v>
+        <v>3.747314382572569</v>
       </c>
     </row>
   </sheetData>
